--- a/A dog chasing cars/DanClark/CODELLIGENT/1P 3) Atributos de Clase.xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/1P 3) Atributos de Clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA543F62-329C-4380-AAD8-6ACB4EBF772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C7667-B8E8-4F7D-950F-F8D20C3F8B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>CLASE</t>
   </si>
@@ -148,14 +148,28 @@
   </si>
   <si>
     <t>Usuario</t>
+  </si>
+  <si>
+    <t>AsignarAdelanto()</t>
+  </si>
+  <si>
+    <t>PagarAdelanto()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,7 +218,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{969CA10F-D784-4D99-803D-8836D7BCD5A9}" name="Tabla1" displayName="Tabla1" ref="A1:C36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{969CA10F-D784-4D99-803D-8836D7BCD5A9}" name="Tabla1" displayName="Tabla1" ref="A1:C39" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{54819014-9FE1-417F-B00F-61DBB9AEA043}" name="CLASE"/>
     <tableColumn id="2" xr3:uid="{027E2D4F-97B8-4174-B742-400A496E88DC}" name="ATRIBUTO"/>
@@ -476,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +563,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,30 +575,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -591,61 +612,51 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -653,42 +664,47 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -696,7 +712,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -704,40 +720,60 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A dog chasing cars/DanClark/CODELLIGENT/1P 3) Atributos de Clase.xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/1P 3) Atributos de Clase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C7667-B8E8-4F7D-950F-F8D20C3F8B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24942B4D-4FC7-4009-ACC6-49CB4DF2F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>CLASE</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>PagarAdelanto()</t>
+  </si>
+  <si>
+    <t>TomarOtorgado()</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{969CA10F-D784-4D99-803D-8836D7BCD5A9}" name="Tabla1" displayName="Tabla1" ref="A1:C39" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{969CA10F-D784-4D99-803D-8836D7BCD5A9}" name="Tabla1" displayName="Tabla1" ref="A1:C40" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{54819014-9FE1-417F-B00F-61DBB9AEA043}" name="CLASE"/>
     <tableColumn id="2" xr3:uid="{027E2D4F-97B8-4174-B742-400A496E88DC}" name="ATRIBUTO"/>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,151 +571,150 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -720,58 +722,64 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="125" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
